--- a/5-backpack/dane_5.xlsx
+++ b/5-backpack/dane_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a258678afa0cae05/Documents/Documents 1/GitHub/AiSD_lab/5-backpack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="11_F25DC773A252ABDACC104805799B403C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09622294-43ED-4A29-9368-C937C2426E8D}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="11_F25DC773A252ABDACC104805799B403C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{103DC15C-8F55-4A37-8CB4-FAB180CE1F98}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wyniki (2)" sheetId="3" r:id="rId1"/>
@@ -178,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -213,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -274,6 +274,1843 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>bf1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'wyniki (2)'!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.33144311904907198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.698743867874145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5507748603820799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1511731624603199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7541766643524097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.111442375183099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.9008601188659</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.599796819686802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>133.16659002303999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>260.50221614837602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCEF-4FE2-AE85-ABAC3CAB11F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>bf2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'wyniki (2)'!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.57810096740722605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.28856019973754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7061548709869299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7333086013793899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.004570531844999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.596933889389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.606973457336402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>109.350301074981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>244.95662837028499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>476.77784447669899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BCEF-4FE2-AE85-ABAC3CAB11F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1859308960"/>
+        <c:axId val="1859295040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1859308960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1859295040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1859295040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1859308960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17292825896762903"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.78262729658792651"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>bf1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'wyniki (2)'!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21653919219970699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36075143814086902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83143930435180602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7351563453674299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2550731182098298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4022672653198196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.427048730850199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.743427801132199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.550532150268495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130.26978878974899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2466-4E24-9A52-E87943C00939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>bf2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'wyniki (2)'!$B$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.2571096420288005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3883113861083904E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.123086977005004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17229871749877901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33373932838439901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62080292701721196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0594187259673999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9986505985259999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4564445495605396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1327403068542399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2466-4E24-9A52-E87943C00939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1859289280"/>
+        <c:axId val="1859289760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1859289280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1859289760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1859289760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1859289280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CA1F53-235B-0A1F-117E-02AED8F7BF9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184D2FEC-ADAA-3B1C-5544-03C9AFD610D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{98282D0B-BFE3-43FB-9CD0-718A9C8FF164}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13">
@@ -296,21 +2133,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{14F0518A-D113-48C0-96F2-C79E905BA768}" name="Tabela_wyniki__2" displayName="Tabela_wyniki__2" ref="A1:L50" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{14F0518A-D113-48C0-96F2-C79E905BA768}" name="Tabela_wyniki__2" displayName="Tabela_wyniki__2" ref="A1:L50" tableType="queryTable" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:L50" xr:uid="{14F0518A-D113-48C0-96F2-C79E905BA768}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{6AAAFCA2-5E21-4B34-BA04-CDA6378E9AEB}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{D9D1B647-9F4B-437D-ABA3-C82F8F1269DD}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{188C791E-DB81-41D2-AF03-78B428F2D13F}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9EB2795E-420E-4456-8AAD-7BB274CC647B}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{10A1D3EE-105A-4D83-B42C-2971EC192DC5}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{0C36F314-76C5-4702-93AE-F13B0BE216AC}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{3B89A933-1AA5-489B-B830-0EDB2B4DF80F}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{2572A9BE-011E-4BC7-A847-BC4DD9E5FF17}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{8B9A652D-16D9-4BC0-87A2-52EC3512A6A2}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{8BCFFDAA-31DA-44A6-8F57-A35AF07B5FE4}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{F6DADE6D-035B-4DE3-808C-FC3AFB8CDA4A}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{17EF58DE-27D9-4FFA-A0ED-CE79248A93F7}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6AAAFCA2-5E21-4B34-BA04-CDA6378E9AEB}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{D9D1B647-9F4B-437D-ABA3-C82F8F1269DD}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{188C791E-DB81-41D2-AF03-78B428F2D13F}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{9EB2795E-420E-4456-8AAD-7BB274CC647B}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{10A1D3EE-105A-4D83-B42C-2971EC192DC5}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{0C36F314-76C5-4702-93AE-F13B0BE216AC}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{3B89A933-1AA5-489B-B830-0EDB2B4DF80F}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{2572A9BE-011E-4BC7-A847-BC4DD9E5FF17}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{8B9A652D-16D9-4BC0-87A2-52EC3512A6A2}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{8BCFFDAA-31DA-44A6-8F57-A35AF07B5FE4}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{F6DADE6D-035B-4DE3-808C-FC3AFB8CDA4A}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{17EF58DE-27D9-4FFA-A0ED-CE79248A93F7}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DA78E-269E-4396-B28E-DC82BF6E4F32}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,8 +4477,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
